--- a/design/ActionKeywords.xlsx
+++ b/design/ActionKeywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013161\IdeaProjects\bpss-qa-automation\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013567\GitHub\pronghorn\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Object</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Object:String</t>
   </si>
   <si>
-    <t>Object: String</t>
-  </si>
-  <si>
     <t>Object: String (Absolute File Path)</t>
   </si>
   <si>
@@ -261,6 +258,15 @@
   </si>
   <si>
     <t>select</t>
+  </si>
+  <si>
+    <t>clickAlert</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Alert box actions (yes/no)</t>
   </si>
 </sst>
 </file>
@@ -913,7 +919,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -957,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,17 +975,17 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +995,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1003,17 +1009,17 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,14 +1031,14 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,16 +1050,16 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,19 +1068,19 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>9</v>
@@ -1099,22 +1105,22 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,19 +1129,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,17 +1150,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1166,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -1178,12 +1184,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1205,16 +1223,16 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,16 +1244,16 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,19 +1262,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,10 +1283,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -1302,19 +1320,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,19 +1341,19 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,7 +1383,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1380,7 +1398,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1395,7 +1413,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1410,7 +1428,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -1424,10 +1442,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">

--- a/design/ActionKeywords.xlsx
+++ b/design/ActionKeywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013161\IdeaProjects\bpss-qa-automation\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013161\Documents\GitHub\pronghorn-engine\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Object</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>select</t>
+  </si>
+  <si>
+    <t>switchToFrame</t>
+  </si>
+  <si>
+    <t>switchToParentFrame</t>
+  </si>
+  <si>
+    <t>switchToNextWindow</t>
+  </si>
+  <si>
+    <t>switchToPrevWindow</t>
+  </si>
+  <si>
+    <t>switchToParentWindow</t>
+  </si>
+  <si>
+    <t>hoverTo</t>
   </si>
 </sst>
 </file>
@@ -636,7 +654,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="Category" dataDxfId="3"/>
     <tableColumn id="2" name="ActionKeyword" dataDxfId="2"/>
@@ -910,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1196,9 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1186,10 +1206,10 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1198,87 +1218,51 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="B16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1286,10 +1270,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1298,142 +1280,262 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="A23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/design/ActionKeywords.xlsx
+++ b/design/ActionKeywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013161\Documents\GitHub\pronghorn-engine\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013567\GitHub\pronghorn\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Object</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Usage</t>
   </si>
   <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -279,6 +273,21 @@
   </si>
   <si>
     <t>hoverTo</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>clickAlert</t>
+  </si>
+  <si>
+    <t>closeApplication</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Click the alertbox. No value, means Cancel.</t>
   </si>
 </sst>
 </file>
@@ -931,13 +940,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
@@ -947,16 +956,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2</v>
@@ -966,7 +975,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -975,229 +984,229 @@
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="13" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1208,7 +1217,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1219,7 +1228,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1230,7 +1239,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1241,7 +1250,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1252,7 +1261,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1262,12 +1271,24 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1289,7 +1310,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1301,80 +1322,80 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -1389,7 +1410,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1401,43 +1422,43 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,7 +1472,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1463,77 +1484,77 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G38" s="6"/>
     </row>

--- a/design/ActionKeywords.xlsx
+++ b/design/ActionKeywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Object</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Click the alertbox. No value, means Cancel.</t>
+  </si>
+  <si>
+    <t>clearField</t>
+  </si>
+  <si>
+    <t>Clears the text field/date field.</t>
   </si>
 </sst>
 </file>
@@ -940,7 +946,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,11 +1298,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
